--- a/Appointment_Scheduling/results.xlsx
+++ b/Appointment_Scheduling/results.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Files\Github\HKUST_TOPIC\Appointment_Scheduling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74AB7628-BA33-4DF9-AB4E-F6C079CCC416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4490BAB9-69E1-400D-9114-52883408C1A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-135" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Waiting</t>
   </si>
@@ -38,12 +49,21 @@
   <si>
     <t>lambda= 30</t>
   </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>waiting</t>
+  </si>
+  <si>
+    <t>minimize idle = makespan= overtime</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,13 +71,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -72,8 +105,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -354,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:V20"/>
+  <dimension ref="B1:V33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -384,6 +420,9 @@
       <c r="J1" t="s">
         <v>0</v>
       </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
       <c r="Q1" t="s">
         <v>1</v>
       </c>
@@ -394,6 +433,9 @@
       </c>
       <c r="C2">
         <v>33</v>
+      </c>
+      <c r="F2">
+        <v>60</v>
       </c>
       <c r="J2">
         <v>1.0999999999999999E-2</v>
@@ -578,6 +620,14 @@
         <v>348</v>
       </c>
     </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="F8">
         <v>20</v>
@@ -588,6 +638,12 @@
       <c r="H8">
         <v>5</v>
       </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9">
@@ -613,6 +669,13 @@
       <c r="D10">
         <v>78</v>
       </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
       <c r="S10">
         <v>93.9</v>
       </c>
@@ -630,6 +693,7 @@
       <c r="E11">
         <v>307</v>
       </c>
+      <c r="O11" s="1"/>
       <c r="T11">
         <v>307</v>
       </c>
@@ -852,6 +916,203 @@
       </c>
       <c r="V20">
         <v>348</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <v>30</v>
+      </c>
+      <c r="G22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23">
+        <v>40</v>
+      </c>
+      <c r="G23">
+        <v>10</v>
+      </c>
+      <c r="H23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>0.02</v>
+      </c>
+      <c r="C25">
+        <v>23</v>
+      </c>
+      <c r="D25">
+        <v>57.6</v>
+      </c>
+      <c r="E25">
+        <v>91.5</v>
+      </c>
+      <c r="F25">
+        <v>128.80000000000001</v>
+      </c>
+      <c r="G25">
+        <v>171.6</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>21.4</v>
+      </c>
+      <c r="L25">
+        <v>52</v>
+      </c>
+      <c r="M25">
+        <v>83.6</v>
+      </c>
+      <c r="N25">
+        <v>115.4</v>
+      </c>
+      <c r="O25">
+        <v>147</v>
+      </c>
+      <c r="Q25">
+        <v>0.46</v>
+      </c>
+      <c r="R25">
+        <v>23</v>
+      </c>
+      <c r="S25">
+        <v>57.6</v>
+      </c>
+      <c r="T25">
+        <v>91.5</v>
+      </c>
+      <c r="U25">
+        <v>128.80000000000001</v>
+      </c>
+      <c r="V25">
+        <v>171.6</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>30</v>
+      </c>
+      <c r="G27">
+        <v>10</v>
+      </c>
+      <c r="H27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>0.02</v>
+      </c>
+      <c r="C29">
+        <v>23</v>
+      </c>
+      <c r="D29">
+        <v>57.6</v>
+      </c>
+      <c r="E29">
+        <v>91.5</v>
+      </c>
+      <c r="F29">
+        <v>128.80000000000001</v>
+      </c>
+      <c r="G29">
+        <v>171.6</v>
+      </c>
+      <c r="J29">
+        <v>0.72</v>
+      </c>
+      <c r="K29">
+        <v>31.8</v>
+      </c>
+      <c r="L29">
+        <v>63.14</v>
+      </c>
+      <c r="M29">
+        <v>95.45</v>
+      </c>
+      <c r="N29">
+        <v>127.99</v>
+      </c>
+      <c r="O29">
+        <v>160.5</v>
+      </c>
+      <c r="Q29">
+        <v>0.72</v>
+      </c>
+      <c r="R29">
+        <v>31.8</v>
+      </c>
+      <c r="S29">
+        <v>63.14</v>
+      </c>
+      <c r="T29">
+        <v>95.45</v>
+      </c>
+      <c r="U29">
+        <v>128.80000000000001</v>
+      </c>
+      <c r="V29">
+        <v>171.6</v>
+      </c>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>20</v>
+      </c>
+      <c r="G31">
+        <v>10</v>
+      </c>
+      <c r="H31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="10:22" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <v>11.1</v>
+      </c>
+      <c r="K33">
+        <v>43.3</v>
+      </c>
+      <c r="L33">
+        <v>76</v>
+      </c>
+      <c r="M33">
+        <v>109.8</v>
+      </c>
+      <c r="N33">
+        <v>143.69999999999999</v>
+      </c>
+      <c r="O33">
+        <v>177.6</v>
+      </c>
+      <c r="Q33">
+        <v>11.1</v>
+      </c>
+      <c r="R33">
+        <v>43.3</v>
+      </c>
+      <c r="S33">
+        <v>76</v>
+      </c>
+      <c r="T33">
+        <v>109.8</v>
+      </c>
+      <c r="U33">
+        <v>143.69999999999999</v>
+      </c>
+      <c r="V33">
+        <v>177.6</v>
       </c>
     </row>
   </sheetData>
